--- a/public/files/style_employees.xlsx
+++ b/public/files/style_employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\P-in_Devlopment\financial_management_system\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282E54F3-FBF3-476C-A438-531FAFE28D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9384887A-89FA-40B7-B418-0D2D995530CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>اسم الموظف</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>رقم الهوية</t>
+  </si>
+  <si>
+    <t>نسبة علاوة طبيعة العمل</t>
   </si>
 </sst>
 </file>
@@ -482,12 +485,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -503,22 +506,23 @@
     <col min="10" max="10" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.59765625" customWidth="1"/>
-    <col min="33" max="33" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.8984375" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.59765625" customWidth="1"/>
+    <col min="34" max="34" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,51 +578,54 @@
         <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
